--- a/biology/Zoologie/Borealosuchus/Borealosuchus.xlsx
+++ b/biology/Zoologie/Borealosuchus/Borealosuchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Borealosuchus est un genre fossile de crocodiliens qui a vécu du Crétacé supérieur à l'Éocène en Amérique du Nord, au Canada et États-Unis. 
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Borealosuchus est nommé en 1997 par le paléontologue américain Christopher A. Brochu (d) (1967-) pour plusieurs espèces qui avaient été assignées auparavant au genre Leidyosuchus[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Borealosuchus est nommé en 1997 par le paléontologue américain Christopher A. Brochu (d) (1967-) pour plusieurs espèces qui avaient été assignées auparavant au genre Leidyosuchus,. 
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces qui en font partie sont les suivantes :
 † B. sternbergi, l'espèce type, qui a vécu au Maastrichtien (Crétacé supérieur) au Colorado, Montana, Dakota du Nord, Dakota du Sud et Wyoming ;
 † B. acutidentatus, qui a vécu au Paléocène au Saskatchewan ;
-† B. formidabilis, qui a vécu au  Paléocène au Dakota du Nord et au Wyoming[1] ;
-† B. griffithi, qui a vécu au Paléocène dans l'Alberta[3] ; et
-† B. wilsoni, qui a vécu à l’Éocène au Wyoming[1].
-B. formidabilis est particulièrement bien connu, représenté par de nombreux restes retrouvés sur le site de Wannagan Creek dans le Dakota du Nord[4].
+† B. formidabilis, qui a vécu au  Paléocène au Dakota du Nord et au Wyoming ;
+† B. griffithi, qui a vécu au Paléocène dans l'Alberta ; et
+† B. wilsoni, qui a vécu à l’Éocène au Wyoming.
+B. formidabilis est particulièrement bien connu, représenté par de nombreux restes retrouvés sur le site de Wannagan Creek dans le Dakota du Nord.
 D'autres espèces ont été décrites : Borealosuchus threeensis, Leidyosuchus riggsi.
 </t>
         </is>
@@ -580,11 +596,13 @@
           <t>Cladogrammes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Crocodilia peut être décomposé en clades de niveau inférieur et, dans cette hypothèse, et pour les espèces encore vivantes, seules sont reconnues trois superfamilles, comme pour la classification d'ITIS      (4 novembre 2013)[5]. En fait, des centaines de fossiles, répartis en des dizaines de genres, ont été découverts, et plus d'une dizaine de genres n'ont pu, en 2013, être rattachés à aucun des sous-ordres, superfamilles ou familles proposés.
-La phylogénie des Crocodilia est, en 2012, interprétée différemment selon les zoologistes. Ce cladogramme, établi d'après les travaux de Holliday et Gardner, en 2012, conserve le clade traditionnellement reconnu des Brevirostres[6] :
-Le succès des crocodiliens est lié à leur dominance complète dans les milieux en bordure d'eau, une niche écologique qu'ils occupent depuis plus de 85 millions d'années. Les adaptations musculo-squelettiques qu'ils ont développées leur octroient une morsure plus puissante que celle de n'importe quel autre animal. En ce sens, ces adaptations sont apparues très tôt, et les crocodiliens modernes diffèrent très peu de leurs ancêtres. En 2012, Erickson et al. mesurent les propriétés biomécaniques des mâchoires des crocodiliens, et les mettent en relation avec la phylogénie basée sur le séquençage de l'ADN pour obtenir un cladogramme respectant le maximum de vraisemblance des crocodiliens actuels (à l'exception du Jacara pour lequel on ne disposait pas d'ADN). Dans ce cladogramme, le clade des Brevirostres est supprimé[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Crocodilia peut être décomposé en clades de niveau inférieur et, dans cette hypothèse, et pour les espèces encore vivantes, seules sont reconnues trois superfamilles, comme pour la classification d'ITIS      (4 novembre 2013). En fait, des centaines de fossiles, répartis en des dizaines de genres, ont été découverts, et plus d'une dizaine de genres n'ont pu, en 2013, être rattachés à aucun des sous-ordres, superfamilles ou familles proposés.
+La phylogénie des Crocodilia est, en 2012, interprétée différemment selon les zoologistes. Ce cladogramme, établi d'après les travaux de Holliday et Gardner, en 2012, conserve le clade traditionnellement reconnu des Brevirostres :
+Le succès des crocodiliens est lié à leur dominance complète dans les milieux en bordure d'eau, une niche écologique qu'ils occupent depuis plus de 85 millions d'années. Les adaptations musculo-squelettiques qu'ils ont développées leur octroient une morsure plus puissante que celle de n'importe quel autre animal. En ce sens, ces adaptations sont apparues très tôt, et les crocodiliens modernes diffèrent très peu de leurs ancêtres. En 2012, Erickson et al. mesurent les propriétés biomécaniques des mâchoires des crocodiliens, et les mettent en relation avec la phylogénie basée sur le séquençage de l'ADN pour obtenir un cladogramme respectant le maximum de vraisemblance des crocodiliens actuels (à l'exception du Jacara pour lequel on ne disposait pas d'ADN). Dans ce cladogramme, le clade des Brevirostres est supprimé :
 </t>
         </is>
       </c>
